--- a/src/test/java/resources/测试2.xlsx
+++ b/src/test/java/resources/测试2.xlsx
@@ -30,11 +30,42 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="35">
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="181" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="yy/m/d"/>
+    <numFmt numFmtId="185" formatCode="m/d"/>
+    <numFmt numFmtId="186" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="188" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="189" formatCode="mmmmm"/>
+    <numFmt numFmtId="190" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="191" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="192" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="193" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="194" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="198" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -639,11 +670,209 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="48" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="23" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="25" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="30" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="33" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,20 +1186,375 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5"/>
+    <col min="1" max="1" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1">
         <v>45736</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5">
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="7">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="9">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="10">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="10">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="11">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="12">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="13">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="14">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="14">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="15">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="16">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="17">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="18">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="19">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="20">
+        <v>45756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="21">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="22">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="23">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="24">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="25">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="26">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="28">
+        <v>45764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="29">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="30">
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="31">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="32">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="33">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="34">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="35">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="36">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="37">
+        <v>45774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="38">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="39">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="40">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="41">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="42">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="43">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="44">
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="45">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="46">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="47">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="47">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="48">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="49">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="50">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="51">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="52">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="53">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="54">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="55">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="56">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="57">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="58">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="59">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="60">
+        <v>45798</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="61">
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="62">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="63">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="64">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="65">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="66">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="67">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="30">
+        <v>45806</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/resources/测试2.xlsx
+++ b/src/test/java/resources/测试2.xlsx
@@ -26,6 +26,209 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>#,##0</t>
+  </si>
+  <si>
+    <t>#,##0.00</t>
+  </si>
+  <si>
+    <t>￥#,##0;￥-#,##0</t>
+  </si>
+  <si>
+    <t>￥#,##0;[红色]￥-#,##0</t>
+  </si>
+  <si>
+    <t>￥#,##0.00;￥-#,##0.00</t>
+  </si>
+  <si>
+    <t>￥#,##0.00;[红色]￥-#,##0.00</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>0.00E+00</t>
+  </si>
+  <si>
+    <t>yyyy/m/d</t>
+  </si>
+  <si>
+    <t>d-mmm-yy</t>
+  </si>
+  <si>
+    <t>d-mmm</t>
+  </si>
+  <si>
+    <t>mmm-yy</t>
+  </si>
+  <si>
+    <t>h:mm</t>
+  </si>
+  <si>
+    <t>h:mm:ss</t>
+  </si>
+  <si>
+    <t>yyyy/m/d h:mm</t>
+  </si>
+  <si>
+    <t>$#,##0_);($#,##0)</t>
+  </si>
+  <si>
+    <t>$#,##0_);[红色]($#,##0)</t>
+  </si>
+  <si>
+    <t>$#,##0.00_);($#,##0.00)</t>
+  </si>
+  <si>
+    <t>$#,##0.00_);[红色]($#,##0.00)</t>
+  </si>
+  <si>
+    <t>m/d/yy</t>
+  </si>
+  <si>
+    <t>yyyy"年"m"月"d"日"</t>
+  </si>
+  <si>
+    <t>h"时"mm"分"</t>
+  </si>
+  <si>
+    <t>h"时"mm"分"ss"秒"</t>
+  </si>
+  <si>
+    <t>#,##0;-#,##0</t>
+  </si>
+  <si>
+    <t>#,##0;[红色]-#,##0</t>
+  </si>
+  <si>
+    <t>#,##0.00;-#,##0.00</t>
+  </si>
+  <si>
+    <t>#,##0.00;[红色]-#,##0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ * #,##0_ ;_ * -#,##0_ ;_ * "-"_ ;_ @_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ ￥* #,##0_ ;_ ￥* -#,##0_ ;_ ￥* "-"_ ;_ @_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * "-"??_ ;_ @_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ ￥* #,##0.00_ ;_ ￥* -#,##0.00_ ;_ ￥* "-"??_ ;_ @_ </t>
+  </si>
+  <si>
+    <t>mm:ss</t>
+  </si>
+  <si>
+    <t>[h]:mm:ss</t>
+  </si>
+  <si>
+    <t>mm:ss.0</t>
+  </si>
+  <si>
+    <t>##0.0E+0</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>上午/下午h"时"mm"分"</t>
+  </si>
+  <si>
+    <t>上午/下午h"时"mm"分"ss"秒"</t>
+  </si>
+  <si>
+    <t>yyyy"年"m"月"</t>
+  </si>
+  <si>
+    <t>m"月"d"日"</t>
+  </si>
+  <si>
+    <t># ?/?</t>
+  </si>
+  <si>
+    <t># ??/??</t>
+  </si>
+  <si>
+    <t>[DBNum1][$-804]yyyy"年"m"月"d"日"</t>
+  </si>
+  <si>
+    <t>[DBNum1][$-804]yyyy"年"m"月"</t>
+  </si>
+  <si>
+    <t>[DBNum1][$-804]m"月"d"日"</t>
+  </si>
+  <si>
+    <t>[$-804]aaaa</t>
+  </si>
+  <si>
+    <t>[$-804]aaa</t>
+  </si>
+  <si>
+    <t>yyyy/m/d h:mm AM/PM</t>
+  </si>
+  <si>
+    <t>yy/m/d</t>
+  </si>
+  <si>
+    <t>m/d</t>
+  </si>
+  <si>
+    <t>mm/dd/yy</t>
+  </si>
+  <si>
+    <t>dd-mmm-yy</t>
+  </si>
+  <si>
+    <t>mmmm-yy</t>
+  </si>
+  <si>
+    <t>mmmmm</t>
+  </si>
+  <si>
+    <t>mmmmm-yy</t>
+  </si>
+  <si>
+    <t>h:mm AM/PM</t>
+  </si>
+  <si>
+    <t>h:mm:ss AM/PM</t>
+  </si>
+  <si>
+    <t>[DBNum1]h"时"mm"分"</t>
+  </si>
+  <si>
+    <t>[DBNum1]上午/下午h"时"mm"分"</t>
+  </si>
+  <si>
+    <t>¥#,##0;¥-#,##0</t>
+  </si>
+  <si>
+    <t>¥#,##0;[红色]¥-#,##0</t>
+  </si>
+  <si>
+    <t>¥#,##0.00;¥-#,##0.00</t>
+  </si>
+  <si>
+    <t>¥#,##0.00;[红色]¥-#,##0.00</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,6 +877,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -692,78 +898,123 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="23" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="25" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="30" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="33" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="48" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="23" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="25" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -773,12 +1024,6 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -788,33 +1033,18 @@
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="30" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -824,43 +1054,16 @@
     <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="33" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1186,378 +1389,808 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="63.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>45736</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
         <v>45736</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4">
         <v>45737</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
         <v>45738</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6">
         <v>45739</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="6">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7">
         <v>45740</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="7">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8">
+        <v>45751</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9">
+        <v>-45752</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10">
+        <v>45753</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11">
+        <v>45754</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12">
+        <v>45755</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13">
+        <v>45756</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="14">
+        <v>45757</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15">
+        <v>45766</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15">
+        <v>45806</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="16">
+        <v>45782</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="17">
+        <v>45781</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="18">
+        <v>45784</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="18">
+        <v>45785</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="19">
+        <v>45789</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="20">
+        <v>45791</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="21">
+        <v>45776</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="22">
+        <v>45761</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="23">
+        <v>45762</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="24">
+        <v>45763</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="25">
+        <v>45764</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="26">
+        <v>45779</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45770</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="27">
+        <v>45793</v>
+      </c>
+      <c r="B29">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="28">
+        <v>45794</v>
+      </c>
+      <c r="B30">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="29">
+        <v>45746</v>
+      </c>
+      <c r="B31">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="30">
+        <v>45747</v>
+      </c>
+      <c r="B32">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="31">
+        <v>45748</v>
+      </c>
+      <c r="B33">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="32">
+        <v>45749</v>
+      </c>
+      <c r="B34">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="32">
+        <v>45750</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="33">
         <v>45741</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="8">
+      <c r="B36">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="34">
+        <v>45743</v>
+      </c>
+      <c r="B37">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="35">
         <v>45742</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="9">
-        <v>45743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="10">
+      <c r="B38">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="36">
         <v>45744</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="10">
+      <c r="B39">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="36">
         <v>45745</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="11">
-        <v>45746</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="12">
-        <v>45747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="13">
-        <v>45748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="14">
-        <v>45749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="14">
-        <v>45750</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="15">
-        <v>45751</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="16">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="17">
-        <v>45753</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="18">
-        <v>45754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="19">
-        <v>45755</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="20">
-        <v>45756</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="21">
-        <v>45757</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="22">
+      <c r="B40">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="37">
+        <v>45800</v>
+      </c>
+      <c r="B41">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="38">
+        <v>45801</v>
+      </c>
+      <c r="B42">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="39">
+        <v>45765</v>
+      </c>
+      <c r="B43">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="40">
         <v>45758</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="23">
+      <c r="B44">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B45">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="41">
+        <v>45795</v>
+      </c>
+      <c r="B46">
+        <v>55</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="42">
+        <v>45796</v>
+      </c>
+      <c r="B47">
+        <v>56</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="43">
+        <v>45771</v>
+      </c>
+      <c r="B48">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="44">
+        <v>45772</v>
+      </c>
+      <c r="B49">
+        <v>58</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="45">
         <v>45759</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="24">
+      <c r="B50">
+        <v>176</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="46">
         <v>45760</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="25">
-        <v>45761</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="26">
-        <v>45762</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="27">
-        <v>45763</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="28">
-        <v>45764</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="29">
-        <v>45765</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="30">
-        <v>45766</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="31">
+      <c r="B51">
+        <v>177</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="47">
         <v>45767</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="32">
+      <c r="B52">
+        <v>178</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="48">
         <v>45768</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="33">
+      <c r="B53">
+        <v>179</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="49">
         <v>45769</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="34">
-        <v>45771</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="35">
-        <v>45772</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="36">
+      <c r="B54">
+        <v>180</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="50">
         <v>45773</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="37">
+      <c r="B55">
+        <v>181</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="51">
         <v>45774</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="38">
+      <c r="B56">
+        <v>182</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="52">
         <v>45775</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="39">
-        <v>45776</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="40">
+      <c r="B57">
+        <v>183</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="53">
         <v>45777</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="41">
+      <c r="B58">
+        <v>184</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="54">
         <v>45778</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="42">
-        <v>45779</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="43">
+      <c r="B59">
+        <v>185</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="55">
         <v>45780</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="44">
-        <v>45781</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="45">
-        <v>45782</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="46">
+      <c r="B60">
+        <v>186</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="56">
         <v>45783</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="47">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="47">
-        <v>45785</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="48">
+      <c r="B61">
+        <v>187</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="57">
         <v>45786</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="49">
+      <c r="B62">
+        <v>188</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="58">
         <v>45787</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="50">
+      <c r="B63">
+        <v>189</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="59">
         <v>45788</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="51">
-        <v>45789</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="52">
+      <c r="B64">
+        <v>190</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="60">
         <v>45790</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="53">
-        <v>45791</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="54">
+      <c r="B65">
+        <v>191</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="61">
         <v>45792</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="55">
-        <v>45793</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="56">
-        <v>45794</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="57">
-        <v>45795</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="58">
-        <v>45796</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="59">
+      <c r="B66">
+        <v>192</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="62">
         <v>45797</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="60">
+      <c r="B67">
+        <v>193</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="63">
         <v>45798</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="61">
-        <v>45799</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="62">
-        <v>45800</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="63">
-        <v>45801</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="64">
+      <c r="B68">
+        <v>194</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="64">
         <v>45802</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="65">
+      <c r="B69">
+        <v>195</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="65">
         <v>45803</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="66">
+      <c r="B70">
+        <v>196</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="66">
         <v>45804</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="67">
+      <c r="B71">
+        <v>197</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="67">
         <v>45805</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="30">
-        <v>45806</v>
+      <c r="B72">
+        <v>198</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:C72">
+    <sortCondition ref="B4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/src/test/java/resources/测试2.xlsx
+++ b/src/test/java/resources/测试2.xlsx
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
